--- a/patient.xlsx
+++ b/patient.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,33 +421,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Token</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Dose</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -456,23 +429,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>cita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dfg</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gghdd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">dghdt
-</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -484,83 +451,86 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>decap</t>
+          <t>cita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wd</t>
+          <t>vh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dc</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">dwe
-</t>
+          <t>hv</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pita</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>fj</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fnhfh
-</t>
+          <t>42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sac</t>
+          <t>hy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sca</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ca</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ascascs
-</t>
+          <t>54</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cita</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nk</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>njm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/patient.xlsx
+++ b/patient.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="17196" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,40 +412,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cita</t>
+          <t>mole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -456,78 +456,166 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vh</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hv</t>
+          <t>s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>glw</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>w</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>w</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hy</t>
+          <t>mole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cita</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>glw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>cita</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>nk</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>njm</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>g</t>
         </is>
       </c>
     </row>

--- a/patient.xlsx
+++ b/patient.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -619,6 +619,28 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>noxo7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>swd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/patient.xlsx
+++ b/patient.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="1080" windowWidth="17196" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -641,6 +641,28 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cita</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
